--- a/1099NEC_2021.xlsx
+++ b/1099NEC_2021.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS366-SABARISINDU S\Pictures\1099-NEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68135934-AEBF-4A06-BDCD-AF0301191846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED27CFD-B5F5-497D-A3F5-1C9AB5C8AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF8FB366-E824-4449-8925-E73C98060CA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RecipientInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -358,9 +358,6 @@
     <t>7b) State income</t>
   </si>
   <si>
-    <t>Megan Short</t>
-  </si>
-  <si>
     <t>Yvonne Sutherland</t>
   </si>
   <si>
@@ -473,6 +470,12 @@
   </si>
   <si>
     <t>Span@123</t>
+  </si>
+  <si>
+    <t>YES Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Nash	</t>
   </si>
 </sst>
 </file>
@@ -554,6 +557,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -998,7 +1002,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1109,37 +1113,37 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W2">
         <v>5600</v>
@@ -1150,31 +1154,31 @@
     </row>
     <row r="3" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W3" s="9">
         <f>W2+250</f>
@@ -1187,31 +1191,31 @@
     </row>
     <row r="4" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W4" s="9">
         <f t="shared" ref="W4:W11" si="0">W3+250</f>
@@ -1223,32 +1227,35 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="0"/>
@@ -1261,31 +1268,31 @@
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="0"/>
@@ -1298,31 +1305,31 @@
     </row>
     <row r="7" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W7" s="9">
         <f t="shared" si="0"/>
@@ -1335,31 +1342,31 @@
     </row>
     <row r="8" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="0"/>
@@ -1372,31 +1379,31 @@
     </row>
     <row r="9" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W9" s="9">
         <f t="shared" si="0"/>
@@ -1409,31 +1416,31 @@
     </row>
     <row r="10" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W10" s="9">
         <f t="shared" si="0"/>
@@ -1446,31 +1453,31 @@
     </row>
     <row r="11" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="W11" s="9">
         <f t="shared" si="0"/>

--- a/1099NEC_2021.xlsx
+++ b/1099NEC_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS366-SABARISINDU S\Pictures\1099-NEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED27CFD-B5F5-497D-A3F5-1C9AB5C8AEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BFF64F-0717-4039-84E5-FB64D450025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF8FB366-E824-4449-8925-E73C98060CA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anne Nash	</t>
+  </si>
+  <si>
+    <t>Business Name</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1193,9 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
